--- a/problem_1/Problem 1 to delivery-20240322/balanced_sample.xlsx
+++ b/problem_1/Problem 1 to delivery-20240322/balanced_sample.xlsx
@@ -1,49 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matulda/Desktop/FCUL/Semester 2/Regression and Analysis of Variance /HA 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D48825E-EE3D-6942-A901-463BBB96187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Two way analysis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
-    <t xml:space="preserve">SalePrice</t>
+    <t>SalePrice</t>
   </si>
   <si>
-    <t xml:space="preserve">CentralAir</t>
+    <t>CentralAir</t>
   </si>
   <si>
-    <t xml:space="preserve">KitchenQual</t>
+    <t>KitchenQual</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">Fa</t>
+    <t>Fa</t>
   </si>
   <si>
-    <t xml:space="preserve">Gd</t>
+    <t>Gd</t>
   </si>
   <si>
-    <t xml:space="preserve">TA</t>
+    <t>TA</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Temperature(ºC) \Type</t>
+  </si>
+  <si>
+    <t>Factor B</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Factor A</t>
+  </si>
+  <si>
+    <t>Low (-10)</t>
+  </si>
+  <si>
+    <t>Medium (20)</t>
+  </si>
+  <si>
+    <t>High (45)</t>
+  </si>
+  <si>
+    <t>Central airconditioning vs. Kitchen Quality</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>alphas ^</t>
+  </si>
+  <si>
+    <t>Betas ^</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>KitchenQual (Factor A)</t>
+  </si>
+  <si>
+    <t>CentralAir (Factor B)</t>
+  </si>
+  <si>
+    <t>Dim Factor A</t>
+  </si>
+  <si>
+    <t>Dim Factor B</t>
+  </si>
+  <si>
+    <t>Variability</t>
+  </si>
+  <si>
+    <t>Gammas^</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F-ratios</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>SSTreat</t>
+  </si>
+  <si>
+    <t>SS_FactA+SS_FactB+SSInt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -51,16 +162,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -68,18 +245,2596 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{82080F7A-3033-9C4D-92F9-BCA666EF0E82}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Two way analysis'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Two way analysis'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.9415499999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.366316666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3166666666666682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A62-A540-8EEE-148D6500BB01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Yes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Two way analysis'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Two way analysis'!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.235900000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A62-A540-8EEE-148D6500BB01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1081347984"/>
+        <c:axId val="2015481040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1081347984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015481040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015481040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081347984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Two way analysis'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Two way analysis'!$H$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Two way analysis'!$H$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9415499999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4103-D34F-AD2D-4403E58B1339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Two way analysis'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Two way analysis'!$H$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Two way analysis'!$H$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21.366316666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.235900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4103-D34F-AD2D-4403E58B1339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Two way analysis'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Two way analysis'!$H$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Two way analysis'!$H$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.3166666666666682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4103-D34F-AD2D-4403E58B1339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1081347984"/>
+        <c:axId val="2015481040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1081347984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015481040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015481040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081347984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CBC3F7-F0CF-BDD1-F492-E4E07CB22EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090516C1-EA79-8D4C-86B6-69F610ECB081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,14 +3115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,9 +3134,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="G1" s="18"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5.25</v>
       </c>
       <c r="B2" t="s">
@@ -388,9 +3150,16 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>12.1</v>
       </c>
       <c r="B3" t="s">
@@ -399,10 +3168,22 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8.2</v>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5.25</v>
+      </c>
+      <c r="I3" s="18">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8.1999999999999993</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -410,10 +3191,26 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.5993</v>
+      <c r="F4" s="15"/>
+      <c r="G4" s="8"/>
+      <c r="H4">
+        <v>12.1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>14.99</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.5993000000000004</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -421,9 +3218,27 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I5" s="18">
+        <v>7.65</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>8.5</v>
       </c>
       <c r="B6" t="s">
@@ -432,9 +3247,32 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="F6" s="15"/>
+      <c r="G6" s="8"/>
+      <c r="H6">
+        <v>5.5993000000000004</v>
+      </c>
+      <c r="I6" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>130</v>
+      </c>
+      <c r="R6" s="7">
+        <v>150</v>
+      </c>
+      <c r="S6" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
@@ -443,9 +3281,28 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F7" s="15"/>
+      <c r="G7" s="8"/>
+      <c r="H7">
+        <v>8.5</v>
+      </c>
+      <c r="I7" s="18">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7">
+        <v>155</v>
+      </c>
+      <c r="R7" s="7">
+        <v>188</v>
+      </c>
+      <c r="S7" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>21.45</v>
       </c>
       <c r="B8" t="s">
@@ -454,9 +3311,28 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="F8" s="15"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="17">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7">
+        <v>74</v>
+      </c>
+      <c r="R8" s="7">
+        <v>159</v>
+      </c>
+      <c r="S8" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>16.75</v>
       </c>
       <c r="B9" t="s">
@@ -465,9 +3341,30 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="F9" s="15"/>
+      <c r="G9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>21.45</v>
+      </c>
+      <c r="I9" s="18">
+        <v>14.7</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10">
+        <v>180</v>
+      </c>
+      <c r="R9" s="10">
+        <v>126</v>
+      </c>
+      <c r="S9" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>20.5</v>
       </c>
       <c r="B10" t="s">
@@ -476,10 +3373,31 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>26.5979</v>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8"/>
+      <c r="H10">
+        <v>16.75</v>
+      </c>
+      <c r="I10" s="18">
+        <v>22</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>34</v>
+      </c>
+      <c r="R10" s="7">
+        <v>136</v>
+      </c>
+      <c r="S10" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>26.597899999999999</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -487,9 +3405,28 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="F11" s="15"/>
+      <c r="G11" s="8"/>
+      <c r="H11">
+        <v>20.5</v>
+      </c>
+      <c r="I11" s="18">
+        <v>28.7</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="7">
+        <v>40</v>
+      </c>
+      <c r="R11" s="7">
+        <v>122</v>
+      </c>
+      <c r="S11" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>21.45</v>
       </c>
       <c r="B12" t="s">
@@ -498,9 +3435,28 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F12" s="15"/>
+      <c r="G12" s="8"/>
+      <c r="H12">
+        <v>26.597899999999999</v>
+      </c>
+      <c r="I12" s="18">
+        <v>24.4</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="7">
+        <v>80</v>
+      </c>
+      <c r="R12" s="7">
+        <v>106</v>
+      </c>
+      <c r="S12" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>21.45</v>
       </c>
       <c r="B13" t="s">
@@ -509,9 +3465,28 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="F13" s="15"/>
+      <c r="G13" s="8"/>
+      <c r="H13">
+        <v>21.45</v>
+      </c>
+      <c r="I13" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="10">
+        <v>75</v>
+      </c>
+      <c r="R13" s="10">
+        <v>115</v>
+      </c>
+      <c r="S13" s="10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12.6</v>
       </c>
       <c r="B14" t="s">
@@ -520,10 +3495,31 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>9.8</v>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="17">
+        <v>21.45</v>
+      </c>
+      <c r="I14" s="19">
+        <v>43.715400000000002</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>20</v>
+      </c>
+      <c r="R14" s="7">
+        <v>25</v>
+      </c>
+      <c r="S14" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9.8000000000000007</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -531,9 +3527,30 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="F15" s="15"/>
+      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>12.6</v>
+      </c>
+      <c r="I15" s="18">
+        <v>12.3</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="7">
+        <v>70</v>
+      </c>
+      <c r="R15" s="7">
+        <v>70</v>
+      </c>
+      <c r="S15" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>10.6</v>
       </c>
       <c r="B16" t="s">
@@ -542,9 +3559,28 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I16" s="18">
+        <v>18.05</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="7">
+        <v>82</v>
+      </c>
+      <c r="R16" s="7">
+        <v>58</v>
+      </c>
+      <c r="S16" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -553,10 +3589,29 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>8.7</v>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17">
+        <v>10.6</v>
+      </c>
+      <c r="I17" s="18">
+        <v>10.95</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="10">
+        <v>58</v>
+      </c>
+      <c r="R17" s="10">
+        <v>45</v>
+      </c>
+      <c r="S17" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8.6999999999999993</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -564,10 +3619,18 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>10.2</v>
+      <c r="F18" s="15"/>
+      <c r="G18" s="8"/>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10.199999999999999</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -575,9 +3638,17 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="F19" s="15"/>
+      <c r="G19" s="8"/>
+      <c r="H19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I19" s="18">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>11.75</v>
       </c>
       <c r="B20" t="s">
@@ -586,9 +3657,17 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="F20" s="15"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I20" s="19">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>14.99</v>
       </c>
       <c r="B21" t="s">
@@ -597,9 +3676,10 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>7.65</v>
       </c>
       <c r="B22" t="s">
@@ -609,8 +3689,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>13.75</v>
       </c>
       <c r="B23" t="s">
@@ -620,8 +3700,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -631,8 +3711,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>11.6</v>
       </c>
       <c r="B25" t="s">
@@ -642,8 +3722,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>14.7</v>
       </c>
       <c r="B26" t="s">
@@ -653,8 +3733,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
@@ -664,8 +3744,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>28.7</v>
       </c>
       <c r="B28" t="s">
@@ -675,8 +3755,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>24.4</v>
       </c>
       <c r="B29" t="s">
@@ -686,8 +3766,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>23.9</v>
       </c>
       <c r="B30" t="s">
@@ -697,9 +3777,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>43.7154</v>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>43.715400000000002</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -708,8 +3788,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>12.3</v>
       </c>
       <c r="B32" t="s">
@@ -719,8 +3799,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>18.05</v>
       </c>
       <c r="B33" t="s">
@@ -730,8 +3810,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>10.95</v>
       </c>
       <c r="B34" t="s">
@@ -741,8 +3821,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>19</v>
       </c>
       <c r="B35" t="s">
@@ -752,8 +3832,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>12.8</v>
       </c>
       <c r="B36" t="s">
@@ -763,8 +3843,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>11.92</v>
       </c>
       <c r="B37" t="s">
@@ -775,7 +3855,623 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F3:F20"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O6:O17"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P14:P17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F43188-026E-7742-AA92-2FD306518DEB}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="G1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="30">
+        <f>AVERAGE(C3:C8)</f>
+        <v>8.9415499999999994</v>
+      </c>
+      <c r="I2" s="30">
+        <f>AVERAGE(D3:D8)</f>
+        <v>13.29</v>
+      </c>
+      <c r="J2" s="31">
+        <f>AVERAGE(C3:D8)</f>
+        <v>11.115775000000001</v>
+      </c>
+      <c r="K2" s="32">
+        <f>J2-$J$5</f>
+        <v>-4.437630555555554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5.25</v>
+      </c>
+      <c r="D3" s="18">
+        <v>11.75</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="34">
+        <f>AVERAGE(C9:C14)</f>
+        <v>21.366316666666666</v>
+      </c>
+      <c r="I3" s="34">
+        <f>AVERAGE(D9:D14)</f>
+        <v>26.235900000000004</v>
+      </c>
+      <c r="J3" s="35">
+        <f>AVERAGE(C9:D14)</f>
+        <v>23.801108333333332</v>
+      </c>
+      <c r="K3" s="45">
+        <f t="shared" ref="K3:K4" si="0">J3-$J$5</f>
+        <v>8.2477027777777767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="8"/>
+      <c r="C4">
+        <v>12.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>14.99</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="36">
+        <f>AVERAGE(C15:C20)</f>
+        <v>9.3166666666666682</v>
+      </c>
+      <c r="I4" s="36">
+        <f>AVERAGE(D15:D20)</f>
+        <v>14.17</v>
+      </c>
+      <c r="J4" s="35">
+        <f>AVERAGE(C15:D20)</f>
+        <v>11.743333333333332</v>
+      </c>
+      <c r="K4" s="44">
+        <f t="shared" si="0"/>
+        <v>-3.8100722222222227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="8"/>
+      <c r="C5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="18">
+        <v>7.65</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="38">
+        <f>AVERAGE(C3:C20)</f>
+        <v>13.208177777777776</v>
+      </c>
+      <c r="I5" s="39">
+        <f>AVERAGE(D3:D20)</f>
+        <v>17.898633333333336</v>
+      </c>
+      <c r="J5" s="40">
+        <f>AVERAGE(C3:D20)</f>
+        <v>15.553405555555555</v>
+      </c>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="8"/>
+      <c r="C6">
+        <v>5.5993000000000004</v>
+      </c>
+      <c r="D6" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="42">
+        <f>H5-$J$5</f>
+        <v>-2.3452277777777795</v>
+      </c>
+      <c r="I6" s="42">
+        <f>I5-$J$5</f>
+        <v>2.3452277777777812</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="8"/>
+      <c r="C7">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17">
+        <v>14</v>
+      </c>
+      <c r="D8" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>21.45</v>
+      </c>
+      <c r="D9" s="18">
+        <v>14.7</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="51">
+        <f>DEVSQ(C3:C8)</f>
+        <v>61.106762074999999</v>
+      </c>
+      <c r="I9" s="52">
+        <f>DEVSQ(D3:D8)</f>
+        <v>85.163000000000011</v>
+      </c>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="8"/>
+      <c r="C10">
+        <v>16.75</v>
+      </c>
+      <c r="D10" s="18">
+        <v>22</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="53">
+        <f>DEVSQ(C9:C14)</f>
+        <v>49.451357008333318</v>
+      </c>
+      <c r="I10" s="34">
+        <f>DEVSQ(D9:D14)</f>
+        <v>471.45150430000012</v>
+      </c>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="8"/>
+      <c r="C11">
+        <v>20.5</v>
+      </c>
+      <c r="D11" s="18">
+        <v>28.7</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="53">
+        <f>DEVSQ(C15:C20)</f>
+        <v>42.088333333333331</v>
+      </c>
+      <c r="I11" s="34">
+        <f>DEVSQ(D15:D20)</f>
+        <v>59.188000000000009</v>
+      </c>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="8"/>
+      <c r="C12">
+        <v>26.597899999999999</v>
+      </c>
+      <c r="D12" s="18">
+        <v>24.4</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="8"/>
+      <c r="C13">
+        <v>21.45</v>
+      </c>
+      <c r="D13" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17">
+        <v>21.45</v>
+      </c>
+      <c r="D14" s="19">
+        <v>43.715400000000002</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>12.6</v>
+      </c>
+      <c r="D15" s="18">
+        <v>12.3</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="51">
+        <f>H2-$J2-H$5+$J$5</f>
+        <v>0.17100277777777784</v>
+      </c>
+      <c r="I15" s="52">
+        <f>I2-$J2-I$5+$J$5</f>
+        <v>-0.17100277777778317</v>
+      </c>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="8"/>
+      <c r="C16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D16" s="18">
+        <v>18.05</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" ref="H16:I16" si="1">H3-$J3-H$5+$J$5</f>
+        <v>-8.9563888888886112E-2</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="1"/>
+        <v>8.9563888888891441E-2</v>
+      </c>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="8"/>
+      <c r="C17">
+        <v>10.6</v>
+      </c>
+      <c r="D17" s="18">
+        <v>10.95</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="55">
+        <f t="shared" ref="H17:I17" si="2">H4-$J4-H$5+$J$5</f>
+        <v>-8.143888888888462E-2</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" si="2"/>
+        <v>8.1438888888886396E-2</v>
+      </c>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="8"/>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="18">
+        <v>19</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="8"/>
+      <c r="C19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D19" s="18">
+        <v>12.8</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D20" s="19">
+        <v>11.92</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f>COUNT(C3:D20)</f>
+        <v>36</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="62">
+        <f>DEVSQ((K2:K4))*A24*C24</f>
+        <v>1840.2086951408326</v>
+      </c>
+      <c r="I24" s="63">
+        <f>A24-1</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="19">
+        <f>H24/I24</f>
+        <v>920.10434757041628</v>
+      </c>
+      <c r="K24" s="19">
+        <f>J24/$J$27</f>
+        <v>35.920577659512624</v>
+      </c>
+      <c r="L24" s="19">
+        <f>_xlfn.F.DIST.RT(K24,I24,$I$27)</f>
+        <v>1.0913625804183809E-8</v>
+      </c>
+      <c r="N24">
+        <f>C24*DEVSQ(H2:I4)</f>
+        <v>1425.3359078222227</v>
+      </c>
+      <c r="O24">
+        <f>SUM(H24:H26)</f>
+        <v>1972.7376862465737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G25" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="62">
+        <f>DEVSQ(H6:I6)*B24*C24</f>
+        <v>132.00223991185214</v>
+      </c>
+      <c r="I25" s="63">
+        <f>B24-1</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" ref="J25:J27" si="3">H25/I25</f>
+        <v>132.00223991185214</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" ref="K25:K26" si="4">J25/$J$27</f>
+        <v>5.1533249706989608</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" ref="L25:L26" si="5">_xlfn.F.DIST.RT(K25,I25,$I$27)</f>
+        <v>3.0549321697915566E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G26" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="62">
+        <f>DEVSQ(H15:I17)*C24</f>
+        <v>0.52675119388889324</v>
+      </c>
+      <c r="I26" s="63">
+        <f>I24*I25</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="3"/>
+        <v>0.26337559694444662</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="4"/>
+        <v>1.0282098556152582E-2</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="5"/>
+        <v>0.98977406792642231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="53">
+        <f>SUM(H9:I11)</f>
+        <v>768.44895671666688</v>
+      </c>
+      <c r="I27" s="63">
+        <f>D24-A24*B24</f>
+        <v>30</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="3"/>
+        <v>25.614965223888895</v>
+      </c>
+      <c r="K27" s="64"/>
+      <c r="L27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/problem_1/Problem 1 to delivery-20240322/balanced_sample.xlsx
+++ b/problem_1/Problem 1 to delivery-20240322/balanced_sample.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matulda/Desktop/FCUL/Semester 2/Regression and Analysis of Variance /HA 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D48825E-EE3D-6942-A901-463BBB96187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900AF3B-5018-EE4C-94BC-72D6CDC2916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="17540" windowHeight="17220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Two way analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Global test on means" sheetId="4" r:id="rId2"/>
+    <sheet name="Two way analysis" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0B0AB79D-7A38-2F4C-B1C6-C9726E753C50}</author>
+    <author>tc={A90F0769-4B2A-5943-9D26-887AE9D180D1}</author>
+  </authors>
+  <commentList>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{0B0AB79D-7A38-2F4C-B1C6-C9726E753C50}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There are differences between means.</t>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="1" shapeId="0" xr:uid="{A90F0769-4B2A-5943-9D26-887AE9D180D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There are differences between means.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BA6F67CF-88E3-5848-9BC8-6985B487C04E}</author>
+  </authors>
+  <commentList>
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{BA6F67CF-88E3-5848-9BC8-6985B487C04E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not correct??? 
+Reply:
+    So apparently, when they are not equal, it suggests no interaction between the factors, which is also “proved” in H03 - we cannot reject, and on the graphs we do not see clear interaction (besides mby typical and fair? But lets say not haha) 
+Reply:
+    Okay never mind, it has nothing to do with the interaction, chatGPT lied to me, I just made a mistake</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="64">
   <si>
     <t>SalePrice</t>
   </si>
@@ -148,13 +198,94 @@
   </si>
   <si>
     <t>SS_FactA+SS_FactB+SSInt</t>
+  </si>
+  <si>
+    <t>H01: The a effects of A are all null.</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>H02: The b effects of B are all null</t>
+  </si>
+  <si>
+    <t>H03: No interaction between factor A and factor B</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Significance level</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>model 1</t>
+  </si>
+  <si>
+    <t>model 2</t>
+  </si>
+  <si>
+    <t>Alphas:</t>
+  </si>
+  <si>
+    <t>Are there differences between the means of the groups?</t>
+  </si>
+  <si>
+    <t>Sum of Alphas</t>
+  </si>
+  <si>
+    <t>miu^</t>
+  </si>
+  <si>
+    <t>sigma2</t>
+  </si>
+  <si>
+    <t>F-ratio</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>H0: miu1=miu2=…=miu6</t>
+  </si>
+  <si>
+    <t>H0: alpha1=alpha2=…=alpha6=0</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,6 +335,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -237,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -547,26 +700,84 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -578,7 +789,29 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -590,108 +823,138 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1">
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -715,12 +978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,31 +988,281 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{82080F7A-3033-9C4D-92F9-BCA666EF0E82}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,7 +1317,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Chart Title</a:t>
+              <a:t>Sale price based on presence of central airconditioning</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -886,13 +1393,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Fa</c:v>
+                  <c:v>Fair</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gd</c:v>
+                  <c:v>Good</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TA</c:v>
+                  <c:v>Typical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -958,13 +1465,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Fa</c:v>
+                  <c:v>Fair</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gd</c:v>
+                  <c:v>Good</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TA</c:v>
+                  <c:v>Typical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1212,6 +1719,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> price based on kitchen quality</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,7 +1792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fa</c:v>
+                  <c:v>Fair</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1291,10 +1827,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Y</c:v>
+                  <c:v>Yes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1330,7 +1866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gd</c:v>
+                  <c:v>Good</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,10 +1901,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Y</c:v>
+                  <c:v>Yes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,7 +1940,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TA</c:v>
+                  <c:v>Typical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1439,10 +1975,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Y</c:v>
+                  <c:v>Yes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2837,6 +3373,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="fc62607" id="{80439527-ED8F-1B48-B4F5-C54134A98A16}" userId="S::fc62607@alunos.fc.ul.pt::0e3e20e6-f693-4309-97ed-422933c7062f" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3114,12 +3656,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N19" dT="2024-04-01T03:11:38.04" personId="{80439527-ED8F-1B48-B4F5-C54134A98A16}" id="{0B0AB79D-7A38-2F4C-B1C6-C9726E753C50}">
+    <text>There are differences between means.</text>
+  </threadedComment>
+  <threadedComment ref="N30" dT="2024-04-01T03:11:33.30" personId="{80439527-ED8F-1B48-B4F5-C54134A98A16}" id="{A90F0769-4B2A-5943-9D26-887AE9D180D1}">
+    <text>There are differences between means.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G32" dT="2024-03-31T18:35:52.00" personId="{80439527-ED8F-1B48-B4F5-C54134A98A16}" id="{BA6F67CF-88E3-5848-9BC8-6985B487C04E}">
+    <text xml:space="preserve">Not correct??? 
+</text>
+  </threadedComment>
+  <threadedComment ref="G32" dT="2024-04-01T02:05:59.26" personId="{80439527-ED8F-1B48-B4F5-C54134A98A16}" id="{BBB784B1-2FF4-B441-8D23-21C7E1EF0AC3}" parentId="{BA6F67CF-88E3-5848-9BC8-6985B487C04E}">
+    <text xml:space="preserve">So apparently, when they are not equal, it suggests no interaction between the factors, which is also “proved” in H03 - we cannot reject, and on the graphs we do not see clear interaction (besides mby typical and fair? But lets say not haha) </text>
+  </threadedComment>
+  <threadedComment ref="G32" dT="2024-04-01T03:56:27.32" personId="{80439527-ED8F-1B48-B4F5-C54134A98A16}" id="{A1D95325-E9F0-8147-B8D6-4B8D1909E1F4}" parentId="{BA6F67CF-88E3-5848-9BC8-6985B487C04E}">
+    <text>Okay never mind, it has nothing to do with the interaction, chatGPT lied to me, I just made a mistake</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3134,11 +3702,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3150,11 +3718,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3168,16 +3736,16 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
       <c r="H3">
         <v>5.25</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="7">
         <v>11.75</v>
       </c>
     </row>
@@ -3191,22 +3759,22 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
       <c r="H4">
         <v>12.1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="7">
         <v>14.99</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3218,22 +3786,22 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="46"/>
       <c r="H5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="7">
         <v>7.65</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3247,27 +3815,27 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="46"/>
       <c r="H6">
         <v>5.5993000000000004</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="7">
         <v>13.75</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="2">
         <v>130</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="2">
         <v>150</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="2">
         <v>138</v>
       </c>
     </row>
@@ -3281,23 +3849,23 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="46"/>
       <c r="H7">
         <v>8.5</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="7">
         <v>20</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7">
+      <c r="O7" s="51"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="2">
         <v>155</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="2">
         <v>188</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="2">
         <v>110</v>
       </c>
     </row>
@@ -3311,23 +3879,23 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="17">
+      <c r="F8" s="42"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="8">
         <v>11.6</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7">
+      <c r="O8" s="51"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="2">
         <v>74</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="2">
         <v>159</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="2">
         <v>168</v>
       </c>
     </row>
@@ -3341,25 +3909,25 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="H9">
         <v>21.45</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="7">
         <v>14.7</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10">
+      <c r="O9" s="51"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="3">
         <v>180</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="3">
         <v>126</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="3">
         <v>160</v>
       </c>
     </row>
@@ -3373,25 +3941,25 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="46"/>
       <c r="H10">
         <v>16.75</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="7">
         <v>22</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="51"/>
+      <c r="P10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="2">
         <v>34</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="2">
         <v>136</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="2">
         <v>174</v>
       </c>
     </row>
@@ -3405,23 +3973,23 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="46"/>
       <c r="H11">
         <v>20.5</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="7">
         <v>28.7</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="7">
+      <c r="O11" s="51"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="2">
         <v>40</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="2">
         <v>122</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="2">
         <v>120</v>
       </c>
     </row>
@@ -3435,23 +4003,23 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
       <c r="H12">
         <v>26.597899999999999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="7">
         <v>24.4</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="7">
+      <c r="O12" s="51"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="2">
         <v>80</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="2">
         <v>106</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="2">
         <v>150</v>
       </c>
     </row>
@@ -3465,23 +4033,23 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="46"/>
       <c r="H13">
         <v>21.45</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="7">
         <v>23.9</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="10">
+      <c r="O13" s="51"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="3">
         <v>75</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="3">
         <v>115</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="3">
         <v>139</v>
       </c>
     </row>
@@ -3495,25 +4063,25 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="17">
+      <c r="F14" s="42"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="6">
         <v>21.45</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="8">
         <v>43.715400000000002</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="11" t="s">
+      <c r="O14" s="51"/>
+      <c r="P14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="2">
         <v>20</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="2">
         <v>25</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="2">
         <v>96</v>
       </c>
     </row>
@@ -3527,25 +4095,25 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H15">
         <v>12.6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="7">
         <v>12.3</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="7">
+      <c r="O15" s="51"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="2">
         <v>70</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="2">
         <v>70</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="2">
         <v>104</v>
       </c>
     </row>
@@ -3559,23 +4127,23 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="46"/>
       <c r="H16">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="7">
         <v>18.05</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="7">
+      <c r="O16" s="51"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="2">
         <v>82</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="2">
         <v>58</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="2">
         <v>82</v>
       </c>
     </row>
@@ -3589,23 +4157,23 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="46"/>
       <c r="H17">
         <v>10.6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="7">
         <v>10.95</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="10">
+      <c r="O17" s="51"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="3">
         <v>58</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="3">
         <v>45</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="3">
         <v>60</v>
       </c>
     </row>
@@ -3619,12 +4187,12 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="46"/>
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="7">
         <v>19</v>
       </c>
     </row>
@@ -3638,12 +4206,12 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="46"/>
       <c r="H19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="7">
         <v>12.8</v>
       </c>
     </row>
@@ -3657,12 +4225,12 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="17">
+      <c r="F20" s="42"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="8">
         <v>11.92</v>
       </c>
     </row>
@@ -3676,7 +4244,6 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -3856,17 +4423,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F3:F20"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G20"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="O6:O17"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="P14:P17"/>
+    <mergeCell ref="F3:F20"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3874,596 +4441,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F43188-026E-7742-AA92-2FD306518DEB}">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FDD8E0-6B49-6E4B-87CB-FB3DC7D9BEEB}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="G1" s="29" t="s">
+      <c r="D1" s="44"/>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="30">
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="11">
         <f>AVERAGE(C3:C8)</f>
         <v>8.9415499999999994</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="11">
         <f>AVERAGE(D3:D8)</f>
         <v>13.29</v>
       </c>
-      <c r="J2" s="31">
+    </row>
+    <row r="3" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5.25</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="15">
+        <f>AVERAGE(C9:C14)</f>
+        <v>21.366316666666666</v>
+      </c>
+      <c r="I3" s="15">
+        <f>AVERAGE(D9:D14)</f>
+        <v>26.235900000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="46"/>
+      <c r="C4">
+        <v>12.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="17">
+        <f>AVERAGE(C15:C20)</f>
+        <v>9.3166666666666682</v>
+      </c>
+      <c r="I4" s="17">
+        <f>AVERAGE(D15:D20)</f>
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="46"/>
+      <c r="C5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6">
+        <v>5.5993000000000004</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13.75</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="46"/>
+      <c r="C7">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="6">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="30">
+        <f>DEVSQ(C3:C8)</f>
+        <v>61.106762074999999</v>
+      </c>
+      <c r="I8" s="31">
+        <f>DEVSQ(D3:D8)</f>
+        <v>85.163000000000011</v>
+      </c>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>21.45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="32">
+        <f>DEVSQ(C9:C14)</f>
+        <v>49.451357008333318</v>
+      </c>
+      <c r="I9" s="15">
+        <f>DEVSQ(D9:D14)</f>
+        <v>471.45150430000012</v>
+      </c>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="46"/>
+      <c r="C10">
+        <v>16.75</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="32">
+        <f>DEVSQ(C15:C20)</f>
+        <v>42.088333333333331</v>
+      </c>
+      <c r="I10" s="15">
+        <f>DEVSQ(D15:D20)</f>
+        <v>59.188000000000009</v>
+      </c>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="46"/>
+      <c r="C11">
+        <v>20.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="46"/>
+      <c r="C12">
+        <v>26.597899999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="46"/>
+      <c r="C13">
+        <v>21.45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="6">
+        <v>21.45</v>
+      </c>
+      <c r="D14" s="8">
+        <v>43.715400000000002</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>12.6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="46"/>
+      <c r="C16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="46"/>
+      <c r="C17">
+        <v>10.6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="46"/>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="46"/>
+      <c r="C19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D19" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="F19" s="84"/>
+      <c r="G19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="68">
+        <f>C24*DEVSQ(H2:I4)</f>
+        <v>1425.3359078222227</v>
+      </c>
+      <c r="I19" s="79">
+        <f>A24*B24-1</f>
+        <v>5</v>
+      </c>
+      <c r="J19" s="80">
+        <f>H19/I19</f>
+        <v>285.06718156444452</v>
+      </c>
+      <c r="K19" s="79">
+        <f>J19/J20</f>
+        <v>11.128931039835519</v>
+      </c>
+      <c r="L19" s="81">
+        <f>_xlfn.F.DIST.RT(K19,I19,I20)</f>
+        <v>3.9779163995544241E-6</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f>IF(L19&lt;$E$24, "Rejected", "Cannot Reject")</f>
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11.92</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="32">
+        <f>SUM(H8:I10)</f>
+        <v>768.44895671666688</v>
+      </c>
+      <c r="I20" s="39">
+        <f>D24-A24*B24</f>
+        <v>30</v>
+      </c>
+      <c r="J20" s="8">
+        <f>H20/I20</f>
+        <v>25.614965223888895</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8">
+        <f>COUNT(C3:D20)</f>
+        <v>36</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="30">
+        <f>H2-$J$5</f>
+        <v>8.9415499999999994</v>
+      </c>
+      <c r="I24" s="70">
+        <f>I2-$J$5</f>
+        <v>13.29</v>
+      </c>
+      <c r="J24" s="31">
+        <f>SUM(H24:I26)</f>
+        <v>93.320433333333327</v>
+      </c>
+      <c r="K24" s="31">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <f>J20</f>
+        <v>25.614965223888895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="32">
+        <f>H3-$J$5</f>
+        <v>21.366316666666666</v>
+      </c>
+      <c r="I25" s="71">
+        <f>I3-$J$5</f>
+        <v>26.235900000000004</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="33">
+        <f>H4-$J$5</f>
+        <v>9.3166666666666682</v>
+      </c>
+      <c r="I26" s="72">
+        <f>I4-$J$5</f>
+        <v>14.17</v>
+      </c>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="78"/>
+    </row>
+    <row r="29" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="84"/>
+      <c r="G30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="68">
+        <f>C24*DEVSQ(H24:I26)</f>
+        <v>1425.3359078222227</v>
+      </c>
+      <c r="I30" s="79">
+        <f>A24*B24-1</f>
+        <v>5</v>
+      </c>
+      <c r="J30" s="80">
+        <f>H30/I30</f>
+        <v>285.06718156444452</v>
+      </c>
+      <c r="K30" s="79">
+        <f>J30/J31</f>
+        <v>11.128931039835519</v>
+      </c>
+      <c r="L30" s="79">
+        <f>_xlfn.F.DIST.RT(K30,I30,I31)</f>
+        <v>3.9779163995544241E-6</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="8" t="str">
+        <f>IF(L19&lt;$E$24, "Rejected", "Cannot Reject")</f>
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F31" s="84"/>
+      <c r="G31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="86">
+        <f>SUM(H8:I10)</f>
+        <v>768.44895671666688</v>
+      </c>
+      <c r="I31" s="39">
+        <f>D24-A24*B24</f>
+        <v>30</v>
+      </c>
+      <c r="J31" s="8">
+        <f>H31/I31</f>
+        <v>25.614965223888895</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Rejected">
+      <formula>NOT(ISERROR(SEARCH("Rejected",N30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="Cannot Reject">
+      <formula>NOT(ISERROR(SEARCH("Cannot Reject",N30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Rejected">
+      <formula>NOT(ISERROR(SEARCH("Rejected",N19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Cannot Reject">
+      <formula>NOT(ISERROR(SEARCH("Cannot Reject",N19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F43188-026E-7742-AA92-2FD306518DEB}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="11">
+        <f>AVERAGE(C3:C8)</f>
+        <v>8.9415499999999994</v>
+      </c>
+      <c r="I2" s="11">
+        <f>AVERAGE(D3:D8)</f>
+        <v>13.29</v>
+      </c>
+      <c r="J2" s="12">
         <f>AVERAGE(C3:D8)</f>
         <v>11.115775000000001</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="13">
         <f>J2-$J$5</f>
         <v>-4.437630555555554</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>5.25</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="7">
         <v>11.75</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="F3" s="7"/>
+      <c r="G3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="15">
         <f>AVERAGE(C9:C14)</f>
         <v>21.366316666666666</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="15">
         <f>AVERAGE(D9:D14)</f>
         <v>26.235900000000004</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="16">
         <f>AVERAGE(C9:D14)</f>
         <v>23.801108333333332</v>
       </c>
-      <c r="K3" s="45">
-        <f t="shared" ref="K3:K4" si="0">J3-$J$5</f>
+      <c r="K3" s="26">
+        <f>J3-$J$5</f>
         <v>8.2477027777777767</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="46"/>
       <c r="C4">
         <v>12.1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="7">
         <v>14.99</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="36">
+      <c r="F4" s="7"/>
+      <c r="G4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="17">
         <f>AVERAGE(C15:C20)</f>
         <v>9.3166666666666682</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="17">
         <f>AVERAGE(D15:D20)</f>
         <v>14.17</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="16">
         <f>AVERAGE(C15:D20)</f>
         <v>11.743333333333332</v>
       </c>
-      <c r="K4" s="44">
-        <f t="shared" si="0"/>
+      <c r="K4" s="25">
+        <f>J4-$J$5</f>
         <v>-3.8100722222222227</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="46"/>
       <c r="C5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="7">
         <v>7.65</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="19">
         <f>AVERAGE(C3:C20)</f>
         <v>13.208177777777776</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="20">
         <f>AVERAGE(D3:D20)</f>
         <v>17.898633333333336</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="21">
         <f>AVERAGE(C3:D20)</f>
         <v>15.553405555555555</v>
       </c>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="8"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="46"/>
       <c r="C6">
         <v>5.5993000000000004</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="7">
         <v>13.75</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="23">
         <f>H5-$J$5</f>
         <v>-2.3452277777777795</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="23">
         <f>I5-$J$5</f>
         <v>2.3452277777777812</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="8"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="46"/>
       <c r="C7">
         <v>8.5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="6">
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="8">
         <v>11.6</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="58"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C9">
         <v>21.45</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="7">
         <v>14.7</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="51">
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="30">
         <f>DEVSQ(C3:C8)</f>
         <v>61.106762074999999</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="31">
         <f>DEVSQ(D3:D8)</f>
         <v>85.163000000000011</v>
       </c>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="8"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="46"/>
       <c r="C10">
         <v>16.75</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="7">
         <v>22</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="53">
+      <c r="F10" s="7"/>
+      <c r="G10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="32">
         <f>DEVSQ(C9:C14)</f>
         <v>49.451357008333318</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="15">
         <f>DEVSQ(D9:D14)</f>
         <v>471.45150430000012</v>
       </c>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="8"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="46"/>
       <c r="C11">
         <v>20.5</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="7">
         <v>28.7</v>
       </c>
-      <c r="G11" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="53">
+      <c r="F11" s="7"/>
+      <c r="G11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="32">
         <f>DEVSQ(C15:C20)</f>
         <v>42.088333333333331</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="15">
         <f>DEVSQ(D15:D20)</f>
         <v>59.188000000000009</v>
       </c>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="8"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="46"/>
       <c r="C12">
         <v>26.597899999999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="7">
         <v>24.4</v>
       </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="46"/>
       <c r="C13">
         <v>21.45</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="7">
         <v>23.9</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="17">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="6">
         <v>21.45</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="8">
         <v>43.715400000000002</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="8" t="s">
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C15">
         <v>12.6</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="7">
         <v>12.3</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="51">
+      <c r="G15" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="30">
         <f>H2-$J2-H$5+$J$5</f>
         <v>0.17100277777777784</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="31">
         <f>I2-$J2-I$5+$J$5</f>
         <v>-0.17100277777778317</v>
       </c>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="8"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="46"/>
       <c r="C16">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="7">
         <v>18.05</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="53">
-        <f t="shared" ref="H16:I16" si="1">H3-$J3-H$5+$J$5</f>
+      <c r="G16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="32">
+        <f>H3-$J3-H$5+$J$5</f>
         <v>-8.9563888888886112E-2</v>
       </c>
-      <c r="I16" s="34">
-        <f t="shared" si="1"/>
+      <c r="I16" s="15">
+        <f>I3-$J3-I$5+$J$5</f>
         <v>8.9563888888891441E-2</v>
       </c>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="8"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="46"/>
       <c r="C17">
         <v>10.6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="7">
         <v>10.95</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="55">
-        <f t="shared" ref="H17:I17" si="2">H4-$J4-H$5+$J$5</f>
+      <c r="G17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="33">
+        <f>H4-$J4-H$5+$J$5</f>
         <v>-8.143888888888462E-2</v>
       </c>
-      <c r="I17" s="36">
-        <f t="shared" si="2"/>
+      <c r="I17" s="17">
+        <f>I4-$J4-I$5+$J$5</f>
         <v>8.1438888888886396E-2</v>
       </c>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="8"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="46"/>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="7">
         <v>19</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="46"/>
       <c r="C19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="7">
         <v>12.8</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="17">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="8">
         <v>11.92</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="K20" s="41"/>
+    </row>
+    <row r="23" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="E23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="M23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <f>COUNT(C3:D20)</f>
         <v>36</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="E24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="62">
-        <f>DEVSQ((K2:K4))*A24*C24</f>
-        <v>1840.2086951408326</v>
-      </c>
-      <c r="I24" s="63">
+      <c r="H24" s="38">
+        <f>DEVSQ((K2:K4))*B24*C24</f>
+        <v>1226.805796760555</v>
+      </c>
+      <c r="I24" s="39">
         <f>A24-1</f>
         <v>2</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="8">
         <f>H24/I24</f>
-        <v>920.10434757041628</v>
-      </c>
-      <c r="K24" s="19">
+        <v>613.40289838027752</v>
+      </c>
+      <c r="K24" s="8">
         <f>J24/$J$27</f>
-        <v>35.920577659512624</v>
-      </c>
-      <c r="L24" s="19">
+        <v>23.947051773008418</v>
+      </c>
+      <c r="L24" s="8">
         <f>_xlfn.F.DIST.RT(K24,I24,$I$27)</f>
-        <v>1.0913625804183809E-8</v>
-      </c>
-      <c r="N24">
-        <f>C24*DEVSQ(H2:I4)</f>
-        <v>1425.3359078222227</v>
-      </c>
-      <c r="O24">
-        <f>SUM(H24:H26)</f>
-        <v>1972.7376862465737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G25" s="61" t="s">
+        <v>6.0848526739443857E-7</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="8" t="str">
+        <f>IF(L24&lt;$E$24, "Rejected", "Cannot Reject")</f>
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="62">
-        <f>DEVSQ(H6:I6)*B24*C24</f>
-        <v>132.00223991185214</v>
-      </c>
-      <c r="I25" s="63">
+      <c r="H25" s="38">
+        <f>DEVSQ(H6:I6)*A24*C24</f>
+        <v>198.00335986777822</v>
+      </c>
+      <c r="I25" s="39">
         <f>B24-1</f>
         <v>1</v>
       </c>
-      <c r="J25" s="19">
-        <f t="shared" ref="J25:J27" si="3">H25/I25</f>
-        <v>132.00223991185214</v>
-      </c>
-      <c r="K25" s="19">
-        <f t="shared" ref="K25:K26" si="4">J25/$J$27</f>
-        <v>5.1533249706989608</v>
-      </c>
-      <c r="L25" s="19">
-        <f t="shared" ref="L25:L26" si="5">_xlfn.F.DIST.RT(K25,I25,$I$27)</f>
-        <v>3.0549321697915566E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G26" s="61" t="s">
+      <c r="J25" s="8">
+        <f>H25/I25</f>
+        <v>198.00335986777822</v>
+      </c>
+      <c r="K25" s="8">
+        <f>J25/$J$27</f>
+        <v>7.7299874560484412</v>
+      </c>
+      <c r="L25" s="8">
+        <f>_xlfn.F.DIST.RT(K25,I25,$I$27)</f>
+        <v>9.2897133503825075E-3</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="8" t="str">
+        <f>IF(L25&lt;$E$24, "Rejected", "Cannot Reject")</f>
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="38">
         <f>DEVSQ(H15:I17)*C24</f>
         <v>0.52675119388889324</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="39">
         <f>I24*I25</f>
         <v>2</v>
       </c>
-      <c r="J26" s="19">
-        <f t="shared" si="3"/>
+      <c r="J26" s="8">
+        <f>H26/I26</f>
         <v>0.26337559694444662</v>
       </c>
-      <c r="K26" s="19">
-        <f t="shared" si="4"/>
+      <c r="K26" s="8">
+        <f>J26/$J$27</f>
         <v>1.0282098556152582E-2</v>
       </c>
-      <c r="L26" s="19">
-        <f t="shared" si="5"/>
+      <c r="L26" s="8">
+        <f>_xlfn.F.DIST.RT(K26,I26,$I$27)</f>
         <v>0.98977406792642231</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G27" s="61" t="s">
+      <c r="M26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="8" t="str">
+        <f>IF(L26&lt;$E$24, "Rejected", "Cannot Reject")</f>
+        <v>Cannot Reject</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="86">
         <f>SUM(H9:I11)</f>
         <v>768.44895671666688</v>
       </c>
-      <c r="I27" s="63">
-        <f>D24-A24*B24</f>
+      <c r="I27" s="39">
+        <f>D24-(A24*B24)</f>
         <v>30</v>
       </c>
-      <c r="J27" s="19">
-        <f t="shared" si="3"/>
+      <c r="J27" s="8">
+        <f>H27/I27</f>
         <v>25.614965223888895</v>
       </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="43"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G28" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="38">
+        <f>DEVSQ(C3:D20)</f>
+        <v>2193.784864538889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G29" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="38">
+        <f>SUM(H24:H27)</f>
+        <v>2193.784864538889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="39">
+        <f>C24*(DEVSQ(H2:I4))</f>
+        <v>1425.3359078222227</v>
+      </c>
+      <c r="H32" s="57">
+        <f>SUM(H24:H26)</f>
+        <v>1425.3359078222222</v>
+      </c>
+      <c r="I32" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="B3:B8"/>
@@ -4471,7 +5768,16 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <conditionalFormatting sqref="N24:N26">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Rejected">
+      <formula>NOT(ISERROR(SEARCH("Rejected",N24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" stopIfTrue="1" operator="containsText" text="Cannot Reject">
+      <formula>NOT(ISERROR(SEARCH("Cannot Reject",N24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>